--- a/public/template/Customer Report Template.xlsx
+++ b/public/template/Customer Report Template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanyuan.wang\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71464FB-2E1C-4B30-BA55-99E73943C980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="24" windowWidth="11496" windowHeight="3216"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Fiscal Year</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -114,12 +120,79 @@
   <si>
     <t>BVI YTD</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FY2022</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBS R2R</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>402T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBSR2R086-TB-0000</t>
+  </si>
+  <si>
+    <t>3rd party VendorMaster Data Maintenance - ERP</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>P81710017</t>
+  </si>
+  <si>
+    <t>CIE</t>
+  </si>
+  <si>
+    <t>GBSR2R183-FF-0000</t>
+  </si>
+  <si>
+    <t>Commercial Services</t>
+  </si>
+  <si>
+    <t>402T</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>GBS R2R no adjust in 202207</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FY2022</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>SC01</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Flat Charge adjust in 202207</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,7 +269,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,16 +292,25 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -277,7 +359,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,9 +392,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,6 +444,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,42 +636,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="44.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="44.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -641,67 +759,173 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+    <row r="2" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2">
+        <v>202207</v>
+      </c>
+      <c r="C2" s="2">
+        <v>202207</v>
+      </c>
+      <c r="D2" s="2">
+        <v>202207</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-    </row>
-    <row r="4" spans="1:28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="8"/>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>100.1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>550.54999999999995</v>
+      </c>
+      <c r="S2" s="9">
+        <v>43</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="2">
+        <v>4304.3</v>
+      </c>
+      <c r="V2" s="2">
+        <v>4304.3</v>
+      </c>
+      <c r="W2" s="2">
+        <v>4304.3</v>
+      </c>
+      <c r="X2" s="2">
+        <v>4304.3</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2">
+        <v>202208</v>
+      </c>
+      <c r="C3" s="2">
+        <v>202207</v>
+      </c>
+      <c r="D3" s="2">
+        <v>202208</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5547</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="8">
+        <v>81710017</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1000.1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>5500.55</v>
+      </c>
+      <c r="S3" s="9">
+        <v>130000</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="2">
+        <v>130013000</v>
+      </c>
+      <c r="V3" s="2">
+        <v>130013000</v>
+      </c>
+      <c r="W3" s="2">
+        <v>130013000</v>
+      </c>
+      <c r="X3" s="2">
+        <v>130013000</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -731,7 +955,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -761,7 +985,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -791,7 +1015,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -821,7 +1045,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -851,7 +1075,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -881,7 +1105,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -911,7 +1135,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -941,7 +1165,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -971,7 +1195,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1001,7 +1225,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1031,7 +1255,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1061,499 +1285,499 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -1567,12 +1791,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1580,12 +1804,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1593,6 +1817,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e6d8e88-43bd-44c5-af4a-b3f409258f8a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c7e0163d-619a-4037-a3c2-ba840964746c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060BC9B362EF8C043A0CC255B74856BF3" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fc0797186b411a03a3efe4c58bd89a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e6d8e88-43bd-44c5-af4a-b3f409258f8a" xmlns:ns3="c7e0163d-619a-4037-a3c2-ba840964746c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25f659c075e297ff8a8ffed2e81c8d91" ns2:_="" ns3:_="">
     <xsd:import namespace="2e6d8e88-43bd-44c5-af4a-b3f409258f8a"/>
@@ -1803,34 +2047,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e6d8e88-43bd-44c5-af4a-b3f409258f8a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c7e0163d-619a-4037-a3c2-ba840964746c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7E611E1-2353-42AD-A206-8E2038126879}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44E16E5C-B096-4FC4-9E51-47EB23C1EB85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e6d8e88-43bd-44c5-af4a-b3f409258f8a"/>
+    <ds:schemaRef ds:uri="c7e0163d-619a-4037-a3c2-ba840964746c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AED327A-B43D-4E4A-8E54-3BA536DAF42F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AED327A-B43D-4E4A-8E54-3BA536DAF42F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44E16E5C-B096-4FC4-9E51-47EB23C1EB85}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7E611E1-2353-42AD-A206-8E2038126879}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e6d8e88-43bd-44c5-af4a-b3f409258f8a"/>
+    <ds:schemaRef ds:uri="c7e0163d-619a-4037-a3c2-ba840964746c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/public/template/Customer Report Template.xlsx
+++ b/public/template/Customer Report Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanyuan.wang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0047p6c\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71464FB-2E1C-4B30-BA55-99E73943C980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEDE488-AA25-4A32-81B3-1CE83989E44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26355" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,172 +18,158 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+  <si>
+    <t>Billing Month</t>
+  </si>
+  <si>
+    <t>Service Line</t>
+  </si>
+  <si>
+    <t>Customer ARE</t>
+  </si>
+  <si>
+    <t>Customer Company Code</t>
+  </si>
+  <si>
+    <t>Customer Division</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>Customer Cost Center</t>
+  </si>
+  <si>
+    <t>BVI</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Unit Price Currency</t>
+  </si>
+  <si>
+    <t>Billing Currency</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Product GSC Code</t>
+  </si>
+  <si>
+    <t>Product GSC Description</t>
+  </si>
+  <si>
+    <t>GBS R2R</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>GBSR2R086-TB-0000</t>
+  </si>
+  <si>
+    <t>3rd party VendorMaster Data Maintenance - ERP</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>P81710017</t>
+  </si>
+  <si>
+    <t>CIE</t>
+  </si>
+  <si>
+    <t>GBSR2R183-FF-0000</t>
+  </si>
+  <si>
+    <t>Commercial Services</t>
+  </si>
+  <si>
+    <t>402T</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>FY2022</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>SC01</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Flat Charge adjust in 202207</t>
+  </si>
   <si>
     <t>Fiscal Year</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Billing Month</t>
   </si>
   <si>
     <t>Calendar Month</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report Month</t>
   </si>
   <si>
     <t>Business Line</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service Line</t>
   </si>
   <si>
     <t>Sender Profit Center</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer ARE</t>
-  </si>
-  <si>
-    <t>Customer Company Code</t>
-  </si>
-  <si>
-    <t>Customer Division</t>
-  </si>
-  <si>
-    <t>BU</t>
-  </si>
-  <si>
-    <t>Customer Cost Center</t>
   </si>
   <si>
     <t>Product Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Product Name For Report</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BVI</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Unit Price Currency</t>
+  </si>
+  <si>
+    <t>BVI YTD</t>
   </si>
   <si>
     <t>Actual Usage (In CNY) Goss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Actual Usage (In Currency) Goss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Actual Charge (In CNY) Goss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Actual Charge (In Currency) Goss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Billing Currency</t>
   </si>
   <si>
     <t>Adjust Tag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Is Flat Charge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Product GSC Code</t>
-  </si>
-  <si>
-    <t>Product GSC Description</t>
-  </si>
-  <si>
-    <t>Report Month</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BVI YTD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY2022</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GBS R2R</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>402T</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SDI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GBSR2R086-TB-0000</t>
-  </si>
-  <si>
-    <t>3rd party VendorMaster Data Maintenance - ERP</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>P81710017</t>
-  </si>
-  <si>
-    <t>CIE</t>
-  </si>
-  <si>
-    <t>GBSR2R183-FF-0000</t>
-  </si>
-  <si>
-    <t>Commercial Services</t>
-  </si>
-  <si>
-    <t>402T</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>GBS R2R no adjust in 202207</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY2022</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>SC01</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Flat Charge adjust in 202207</t>
   </si>
 </sst>
 </file>
@@ -191,13 +177,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="168" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -205,27 +191,146 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +343,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -262,46 +540,310 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="44">
+    <cellStyle name="20% - 着色 1" xfId="2" xr:uid="{B607B1E3-8DC6-4C17-A639-F8109457AACE}"/>
+    <cellStyle name="20% - 着色 2" xfId="3" xr:uid="{53E6F793-AA00-48BD-BB80-FD112707CFA9}"/>
+    <cellStyle name="20% - 着色 3" xfId="4" xr:uid="{B059CDCE-5B76-4AD1-8671-D3D40AFE6CD2}"/>
+    <cellStyle name="20% - 着色 4" xfId="5" xr:uid="{00CFBCB4-1EAF-463B-BC48-81036E2A06A6}"/>
+    <cellStyle name="20% - 着色 5" xfId="6" xr:uid="{24B45126-A627-42E2-9A2A-FE422D57D6CB}"/>
+    <cellStyle name="20% - 着色 6" xfId="7" xr:uid="{180903A2-55C7-4145-96CB-D01423EE573D}"/>
+    <cellStyle name="40% - 着色 1" xfId="8" xr:uid="{A4359CE0-EF1F-4F27-BDF6-05F84E587699}"/>
+    <cellStyle name="40% - 着色 2" xfId="9" xr:uid="{A17CFEBA-A7CD-4AE3-BC03-39A8612B18D2}"/>
+    <cellStyle name="40% - 着色 3" xfId="10" xr:uid="{9FFCF66F-379B-4667-970A-9BF52E8951A8}"/>
+    <cellStyle name="40% - 着色 4" xfId="11" xr:uid="{7A03CD97-3001-4205-A5D0-8FF1A5559B61}"/>
+    <cellStyle name="40% - 着色 5" xfId="12" xr:uid="{FE2D7E38-ADC4-4FEA-9388-209873336A24}"/>
+    <cellStyle name="40% - 着色 6" xfId="13" xr:uid="{7C27F911-63A7-4091-9B88-722526F95445}"/>
+    <cellStyle name="60% - 着色 1" xfId="14" xr:uid="{763718BA-3FD0-4110-B120-92581E33B675}"/>
+    <cellStyle name="60% - 着色 2" xfId="15" xr:uid="{C8DAE896-37A0-4368-A5E2-80A57EB4D712}"/>
+    <cellStyle name="60% - 着色 3" xfId="16" xr:uid="{DE9021D7-54F9-4D18-AE21-FC3537609DF6}"/>
+    <cellStyle name="60% - 着色 4" xfId="17" xr:uid="{4A895616-4F27-41DC-817F-BE88C0EA2DCB}"/>
+    <cellStyle name="60% - 着色 5" xfId="18" xr:uid="{6B5E941E-3952-4703-AEF3-3B570C930442}"/>
+    <cellStyle name="60% - 着色 6" xfId="19" xr:uid="{F8F6091B-BF1D-4638-999A-E0BBAE3A04EA}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="20" xr:uid="{BAD6ED80-5D1D-4CCF-8104-35774A430BF4}"/>
+    <cellStyle name="差" xfId="21" xr:uid="{08779F92-6040-4BE9-8836-F25693C35E33}"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2_Sheet1" xfId="22" xr:uid="{E1C32D85-3936-4065-AF7E-F86B603F9ADB}"/>
+    <cellStyle name="标题" xfId="23" xr:uid="{F2333047-84AB-4D7D-B95D-8D5FE40960BA}"/>
+    <cellStyle name="标题 1" xfId="24" xr:uid="{A0F67D5C-36EA-4952-9349-AD8F7708713D}"/>
+    <cellStyle name="标题 2" xfId="25" xr:uid="{683B9268-E1D0-4D55-912F-606D35FA5E47}"/>
+    <cellStyle name="标题 3" xfId="26" xr:uid="{D46DAAE7-129A-45B8-B90F-14D9BA2CE9FD}"/>
+    <cellStyle name="标题 4" xfId="27" xr:uid="{4439E08F-BC43-4099-90C7-A4EF1E2AAAA1}"/>
+    <cellStyle name="检查单元格" xfId="28" xr:uid="{6D11D556-F467-4D17-9FBE-58CAD64AD88A}"/>
+    <cellStyle name="汇总" xfId="29" xr:uid="{F25C309B-FF7D-4B94-9A2D-EEBDCE5E3ECA}"/>
+    <cellStyle name="注释" xfId="30" xr:uid="{B71CE93A-3C1C-4E36-A15D-CF698A733142}"/>
+    <cellStyle name="着色 1" xfId="31" xr:uid="{77421DF5-9C70-4DC0-817F-7CA3CA09C4DE}"/>
+    <cellStyle name="着色 2" xfId="32" xr:uid="{9A78CEF0-F821-438D-A63A-88C948FBE6B9}"/>
+    <cellStyle name="着色 3" xfId="33" xr:uid="{0F3C36CA-BF60-4F16-9698-DF5C76344813}"/>
+    <cellStyle name="着色 4" xfId="34" xr:uid="{77CD1775-91C6-49E4-99E0-4C8D9A69FCF1}"/>
+    <cellStyle name="着色 5" xfId="35" xr:uid="{115F2ECB-BA1E-47AE-88B5-B4D5060A2373}"/>
+    <cellStyle name="着色 6" xfId="36" xr:uid="{F315FF16-79BB-450F-AE85-42F5B67D6972}"/>
+    <cellStyle name="解释性文本" xfId="37" xr:uid="{ABD0CE76-CA3C-49A7-A96A-1B2E15880D30}"/>
+    <cellStyle name="警告文本" xfId="38" xr:uid="{24CBCAC3-3611-4DF1-AE5F-10BA88226120}"/>
+    <cellStyle name="计算" xfId="39" xr:uid="{9F508E0E-F3C4-4609-96E1-A9CBCCA780E2}"/>
+    <cellStyle name="输入" xfId="40" xr:uid="{8A9107BD-7106-49DC-816E-93F0F5FD9E4E}"/>
+    <cellStyle name="输出" xfId="41" xr:uid="{822DDB0D-5379-45B5-9A03-4C93C9EF1464}"/>
+    <cellStyle name="适中" xfId="42" xr:uid="{D38A54EB-024E-4AD8-B557-7E12CD8FC965}"/>
+    <cellStyle name="链接单元格" xfId="43" xr:uid="{C7F5F87B-E2F6-4483-87C0-2E260AA4BA17}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -317,7 +859,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -637,1154 +1179,746 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB98"/>
+  <dimension ref="A1:AB78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="37.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="44.875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:28" ht="19.899999999999999" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="19.899999999999999" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3">
+        <v>202207</v>
+      </c>
+      <c r="C2" s="3">
+        <v>202207</v>
+      </c>
+      <c r="D2" s="3">
+        <v>202207</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>100.1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>550.54999999999995</v>
+      </c>
+      <c r="S2" s="6">
+        <v>43</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="3">
+        <v>4304.3</v>
+      </c>
+      <c r="V2" s="3">
+        <v>4304.3</v>
+      </c>
+      <c r="W2" s="3">
+        <v>4304.3</v>
+      </c>
+      <c r="X2" s="3">
+        <v>4304.3</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="19.899999999999999" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3">
+        <v>202208</v>
+      </c>
+      <c r="C3" s="3">
+        <v>202207</v>
+      </c>
+      <c r="D3" s="3">
+        <v>202208</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="7" t="s">
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5547</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="5" t="s">
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5">
+        <v>81710017</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1000.1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>5500.55</v>
+      </c>
+      <c r="S3" s="6">
+        <v>130000</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="U3" s="3">
+        <v>130013000</v>
+      </c>
+      <c r="V3" s="3">
+        <v>130013000</v>
+      </c>
+      <c r="W3" s="3">
+        <v>130013000</v>
+      </c>
+      <c r="X3" s="3">
+        <v>130013000</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2">
-        <v>202207</v>
-      </c>
-      <c r="C2" s="2">
-        <v>202207</v>
-      </c>
-      <c r="D2" s="2">
-        <v>202207</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="AA3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>100.1</v>
-      </c>
-      <c r="R2" s="2">
-        <v>550.54999999999995</v>
-      </c>
-      <c r="S2" s="9">
-        <v>43</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="2">
-        <v>4304.3</v>
-      </c>
-      <c r="V2" s="2">
-        <v>4304.3</v>
-      </c>
-      <c r="W2" s="2">
-        <v>4304.3</v>
-      </c>
-      <c r="X2" s="2">
-        <v>4304.3</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2">
-        <v>202208</v>
-      </c>
-      <c r="C3" s="2">
-        <v>202207</v>
-      </c>
-      <c r="D3" s="2">
-        <v>202208</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5547</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="8">
-        <v>81710017</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1000.1</v>
-      </c>
-      <c r="R3" s="2">
-        <v>5500.55</v>
-      </c>
-      <c r="S3" s="9">
-        <v>130000</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="2">
-        <v>130013000</v>
-      </c>
-      <c r="V3" s="2">
-        <v>130013000</v>
-      </c>
-      <c r="W3" s="2">
-        <v>130013000</v>
-      </c>
-      <c r="X3" s="2">
-        <v>130013000</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-    </row>
-    <row r="7" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-    </row>
-    <row r="8" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-    </row>
-    <row r="10" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-    </row>
-    <row r="11" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-    </row>
-    <row r="12" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.899999999999999" customHeight="1">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" ht="19.899999999999999" customHeight="1">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" ht="19.899999999999999" customHeight="1">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:28" ht="19.899999999999999" customHeight="1">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" ht="19.899999999999999" customHeight="1">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" ht="19.899999999999999" customHeight="1">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:28" ht="19.899999999999999" customHeight="1">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:28" ht="19.899999999999999" customHeight="1">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" ht="19.899999999999999" customHeight="1">
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-    </row>
-    <row r="13" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+    </row>
+    <row r="13" spans="1:28" ht="19.899999999999999" customHeight="1">
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-    </row>
-    <row r="14" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+    </row>
+    <row r="14" spans="1:28" ht="19.899999999999999" customHeight="1">
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+    </row>
+    <row r="15" spans="1:28" ht="19.899999999999999" customHeight="1">
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:28" ht="19.899999999999999" customHeight="1">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="9:12" ht="19.899999999999999" customHeight="1">
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-    </row>
-    <row r="80" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-    </row>
-    <row r="81" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-    </row>
-    <row r="82" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-    </row>
-    <row r="83" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-    </row>
-    <row r="84" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-    </row>
-    <row r="85" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-    </row>
-    <row r="86" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-    </row>
-    <row r="87" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-    </row>
-    <row r="88" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-    </row>
-    <row r="89" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-    </row>
-    <row r="90" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-    </row>
-    <row r="91" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-    </row>
-    <row r="92" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-    </row>
-    <row r="93" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-    </row>
-    <row r="94" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-    </row>
-    <row r="95" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-    </row>
-    <row r="96" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-    </row>
-    <row r="97" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-    </row>
-    <row r="98" spans="9:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1796,9 +1930,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1809,9 +1943,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
